--- a/xlsx/人类发展指数_intext.xlsx
+++ b/xlsx/人类发展指数_intext.xlsx
@@ -29,7 +29,7 @@
     <t>縮寫</t>
   </si>
   <si>
-    <t>政策_政策_美國_人类发展指数</t>
+    <t>体育运动_体育运动_伊朗_人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%96%8B%E7%99%BC%E8%A8%88%E5%8A%83%E7%BD%B2</t>
